--- a/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
+++ b/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\bldgs\PCFURfE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\PCFURfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36164D01-C7C8-41D7-BD7A-E09775066AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Table 4" sheetId="6" r:id="rId2"/>
     <sheet name="AEO Table 5" sheetId="7" r:id="rId3"/>
-    <sheet name="Calculations" sheetId="2" r:id="rId4"/>
-    <sheet name="PCFURfE" sheetId="3" r:id="rId5"/>
+    <sheet name="Texas Notes" sheetId="8" r:id="rId4"/>
+    <sheet name="Calculations" sheetId="2" r:id="rId5"/>
+    <sheet name="PCFURfE" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="401">
   <si>
     <t>Source:</t>
   </si>
@@ -1193,12 +1205,45 @@
   </si>
   <si>
     <t>Perc Fuel Use Reduction (dimensionless)</t>
+  </si>
+  <si>
+    <t>So, here's what they're doing in their calculations:</t>
+  </si>
+  <si>
+    <t>They take some standard efficiency values for gas vs electric across a variety of appliances</t>
+  </si>
+  <si>
+    <t>They calculate the change in "fuel" consumption caused by switching from gas to electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then, because they are analyzing multiple variables (e.g., residential and commercial heating, or water heating, cooking, and other appliances) </t>
+  </si>
+  <si>
+    <t>they take the weighted average of their calculations, weighted by the amount of energy consumed in the different sectors.</t>
+  </si>
+  <si>
+    <t>(So, if water heaters consume more energy than cooking, then their ratio of gas:electric efficiency will have more prominence in the result.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems like a reasonable method to me. </t>
+  </si>
+  <si>
+    <t>I don’t expect Texas numbers to be much different.</t>
+  </si>
+  <si>
+    <t>The values of energy consumption will be different than the rest of the us, but the ratios being used for weighting these particular calculations</t>
+  </si>
+  <si>
+    <t>i.e., commerical heating vs residential heating, or cooking vs water heating vs dryers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is probably similar. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1436,24 +1481,24 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell 2" xfId="7"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="3"/>
-    <cellStyle name="Footnotes: top row 2" xfId="8"/>
-    <cellStyle name="Header: bottom row 2" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row 2" xfId="6"/>
+    <cellStyle name="Parent row 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Table title 2" xfId="5"/>
+    <cellStyle name="Table title 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1544,6 +1589,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1579,6 +1641,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1754,15 +1833,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1799,34 +1879,36 @@
         <v>373</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B10" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="B11" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="B12" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>379</v>
       </c>
     </row>
@@ -1880,7 +1962,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1888,15 +1970,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B58" sqref="B58"/>
       <selection pane="topRight" activeCell="B58" sqref="B58"/>
       <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13349,44 +13431,44 @@
       </c>
     </row>
     <row r="141" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="31" t="s">
+      <c r="B141" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="31"/>
-      <c r="H141" s="31"/>
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
-      <c r="K141" s="31"/>
-      <c r="L141" s="31"/>
-      <c r="M141" s="31"/>
-      <c r="N141" s="31"/>
-      <c r="O141" s="31"/>
-      <c r="P141" s="31"/>
-      <c r="Q141" s="31"/>
-      <c r="R141" s="31"/>
-      <c r="S141" s="31"/>
-      <c r="T141" s="31"/>
-      <c r="U141" s="31"/>
-      <c r="V141" s="31"/>
-      <c r="W141" s="31"/>
-      <c r="X141" s="31"/>
-      <c r="Y141" s="31"/>
-      <c r="Z141" s="31"/>
-      <c r="AA141" s="31"/>
-      <c r="AB141" s="31"/>
-      <c r="AC141" s="31"/>
-      <c r="AD141" s="31"/>
-      <c r="AE141" s="31"/>
-      <c r="AF141" s="31"/>
-      <c r="AG141" s="31"/>
-      <c r="AH141" s="31"/>
-      <c r="AI141" s="31"/>
-      <c r="AJ141" s="31"/>
-      <c r="AK141" s="31"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="33"/>
+      <c r="L141" s="33"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="33"/>
+      <c r="O141" s="33"/>
+      <c r="P141" s="33"/>
+      <c r="Q141" s="33"/>
+      <c r="R141" s="33"/>
+      <c r="S141" s="33"/>
+      <c r="T141" s="33"/>
+      <c r="U141" s="33"/>
+      <c r="V141" s="33"/>
+      <c r="W141" s="33"/>
+      <c r="X141" s="33"/>
+      <c r="Y141" s="33"/>
+      <c r="Z141" s="33"/>
+      <c r="AA141" s="33"/>
+      <c r="AB141" s="33"/>
+      <c r="AC141" s="33"/>
+      <c r="AD141" s="33"/>
+      <c r="AE141" s="33"/>
+      <c r="AF141" s="33"/>
+      <c r="AG141" s="33"/>
+      <c r="AH141" s="33"/>
+      <c r="AI141" s="33"/>
+      <c r="AJ141" s="33"/>
+      <c r="AK141" s="33"/>
     </row>
     <row r="142" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="29" t="s">
@@ -13503,15 +13585,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B58" sqref="B58"/>
       <selection pane="topRight" activeCell="B58" sqref="B58"/>
       <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22565,44 +22647,44 @@
     </row>
     <row r="117" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="118" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="31"/>
-      <c r="L118" s="31"/>
-      <c r="M118" s="31"/>
-      <c r="N118" s="31"/>
-      <c r="O118" s="31"/>
-      <c r="P118" s="31"/>
-      <c r="Q118" s="31"/>
-      <c r="R118" s="31"/>
-      <c r="S118" s="31"/>
-      <c r="T118" s="31"/>
-      <c r="U118" s="31"/>
-      <c r="V118" s="31"/>
-      <c r="W118" s="31"/>
-      <c r="X118" s="31"/>
-      <c r="Y118" s="31"/>
-      <c r="Z118" s="31"/>
-      <c r="AA118" s="31"/>
-      <c r="AB118" s="31"/>
-      <c r="AC118" s="31"/>
-      <c r="AD118" s="31"/>
-      <c r="AE118" s="31"/>
-      <c r="AF118" s="31"/>
-      <c r="AG118" s="31"/>
-      <c r="AH118" s="31"/>
-      <c r="AI118" s="31"/>
-      <c r="AJ118" s="31"/>
-      <c r="AK118" s="31"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
+      <c r="L118" s="33"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="33"/>
+      <c r="O118" s="33"/>
+      <c r="P118" s="33"/>
+      <c r="Q118" s="33"/>
+      <c r="R118" s="33"/>
+      <c r="S118" s="33"/>
+      <c r="T118" s="33"/>
+      <c r="U118" s="33"/>
+      <c r="V118" s="33"/>
+      <c r="W118" s="33"/>
+      <c r="X118" s="33"/>
+      <c r="Y118" s="33"/>
+      <c r="Z118" s="33"/>
+      <c r="AA118" s="33"/>
+      <c r="AB118" s="33"/>
+      <c r="AC118" s="33"/>
+      <c r="AD118" s="33"/>
+      <c r="AE118" s="33"/>
+      <c r="AF118" s="33"/>
+      <c r="AG118" s="33"/>
+      <c r="AH118" s="33"/>
+      <c r="AI118" s="33"/>
+      <c r="AJ118" s="33"/>
+      <c r="AK118" s="33"/>
     </row>
     <row r="119" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="29" t="s">
@@ -22714,24 +22796,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A791C4B-5579-43A4-894D-02910B3B5DB4}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -22748,7 +22909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -22766,7 +22927,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -22783,7 +22944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -22800,7 +22961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -22817,7 +22978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -22835,7 +22996,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -22849,7 +23010,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -22869,7 +23030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -22889,8 +23050,12 @@
         <f>1/(D12/B26)</f>
         <v>0.38774336704545448</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f>1-(F12/F13)</f>
+        <v>0.64327610231818189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -22911,7 +23076,7 @@
         <v>1.0869565217391304</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -22931,8 +23096,12 @@
         <f t="shared" si="0"/>
         <v>1.5873015873015872</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f>1-(F15/F14)</f>
+        <v>0.80792682926829262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -22953,7 +23122,7 @@
         <v>0.3048780487804878</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -22973,8 +23142,12 @@
         <f t="shared" si="0"/>
         <v>0.30120481927710846</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f>1-(F17/F16)</f>
+        <v>0.11229946524064194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -22995,7 +23168,7 @@
         <v>0.26737967914438499</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -23015,8 +23188,12 @@
         <f t="shared" si="0"/>
         <v>1.2345679012345678</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f>1-(F19/F18)</f>
+        <v>0.7617647058823529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -23037,7 +23214,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -23057,8 +23234,12 @@
         <f t="shared" si="0"/>
         <v>1.2195121951219512</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f>1-(F21/F20)</f>
+        <v>0.78974358974358971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -23079,7 +23260,7 @@
         <v>0.25641025641025644</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -23100,8 +23281,12 @@
         <f t="shared" si="0"/>
         <v>3.1578947368421053</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f>1-(F23/F22)</f>
+        <v>0.54761904761904767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -23123,7 +23308,7 @@
         <v>1.4285714285714284</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -23136,15 +23321,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23154,7 +23339,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>389</v>
       </c>
     </row>
